--- a/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{358AD9D9-383F-42C3-AADA-948755F446D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9AE157-DA7F-48FA-B75C-966C278897E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{024AEB24-B903-4283-BE7E-ECFF1DE5DDB3}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3517B96-7AAE-44D3-866E-CC4394AFCEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="340">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -85,19 +85,19 @@
     <t>74,57%</t>
   </si>
   <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>59,67%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -115,19 +115,19 @@
     <t>25,43%</t>
   </si>
   <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>42,86%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>40,33%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
+    <t>76,28%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -196,211 +196,223 @@
     <t>86,11%</t>
   </si>
   <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>89,85%</t>
+    <t>79,81%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>14,32%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>83,02%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
+  </si>
+  <si>
+    <t>76,29%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>74,37%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>73,6%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
+    <t>79,13%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,4%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>54,55%</t>
-  </si>
-  <si>
-    <t>76,73%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>74,23%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>82,16%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -412,79 +424,79 @@
     <t>69,03%</t>
   </si>
   <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>31,71%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>78,68%</t>
+    <t>78,91%</t>
   </si>
   <si>
     <t>87,83%</t>
@@ -493,19 +505,19 @@
     <t>18,63%</t>
   </si>
   <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
   </si>
   <si>
     <t>16,45%</t>
@@ -514,223 +526,223 @@
     <t>12,17%</t>
   </si>
   <si>
-    <t>21,32%</t>
+    <t>21,09%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>87,84%</t>
+    <t>76,57%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>79,5%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
   </si>
   <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>57,63%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>75,08%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>81,21%</t>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>81,23%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>67,41%</t>
-  </si>
-  <si>
-    <t>77,29%</t>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>42,37%</t>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>42,88%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>32,59%</t>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>79,7%</t>
+    <t>66,03%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>78,54%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>70,09%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
+    <t>69,72%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
+    <t>72,77%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>81,59%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
@@ -739,307 +751,313 @@
     <t>74,86%</t>
   </si>
   <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>30,26%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>68,73%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>80,74%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>31,27%</t>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>63,14%</t>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>76,95%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>86,24%</t>
+    <t>76,68%</t>
+  </si>
+  <si>
+    <t>86,02%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>73,65%</t>
-  </si>
-  <si>
-    <t>81,27%</t>
+    <t>73,66%</t>
+  </si>
+  <si>
+    <t>81,16%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>36,86%</t>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>13,76%</t>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>71,63%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>77,66%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
+    <t>63,34%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
+    <t>28,37%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>35,43%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
   </si>
   <si>
     <t>62,11%</t>
   </si>
   <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
+    <t>54,67%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
+    <t>63,1%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
   </si>
   <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>34,83%</t>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>34,92%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>29,07%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
+    <t>28,96%</t>
+  </si>
+  <si>
+    <t>36,9%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,79%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
+    <t>62,6%</t>
+  </si>
+  <si>
+    <t>70,36%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>72,86%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
+    <t>70,16%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>37,21%</t>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>27,14%</t>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
+    <t>29,84%</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B57E08-6397-4104-AAE8-18B3D94C1D49}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7C907E-D8A1-4F5E-973A-A297614CB8E4}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2207,7 +2225,7 @@
         <v>209</v>
       </c>
       <c r="I16" s="7">
-        <v>219835</v>
+        <v>219836</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2309,7 +2327,7 @@
         <v>262</v>
       </c>
       <c r="I18" s="7">
-        <v>276007</v>
+        <v>276008</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2371,22 +2389,22 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>1008</v>
       </c>
       <c r="N19" s="7">
-        <v>1020879</v>
+        <v>1020880</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>58</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2401,13 +2419,13 @@
         <v>101108</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -2416,13 +2434,13 @@
         <v>129804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -2431,13 +2449,13 @@
         <v>230912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,7 +2497,7 @@
         <v>1236</v>
       </c>
       <c r="N21" s="7">
-        <v>1251791</v>
+        <v>1251792</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2493,7 +2511,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2514,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC8B4A17-AF7B-4C31-9D96-334C5AE4E7F8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C997334D-7222-4FD3-8996-DFE25DD75219}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2531,7 +2549,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2638,13 +2656,13 @@
         <v>11507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -2653,13 +2671,13 @@
         <v>36114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -2668,13 +2686,13 @@
         <v>47620</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2689,13 +2707,13 @@
         <v>5163</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2704,13 +2722,13 @@
         <v>5931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2719,13 +2737,13 @@
         <v>11095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2793,13 +2811,13 @@
         <v>85016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>150</v>
@@ -2808,13 +2826,13 @@
         <v>160724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>229</v>
@@ -2823,13 +2841,13 @@
         <v>245739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2844,13 +2862,13 @@
         <v>19459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -2859,13 +2877,13 @@
         <v>28922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -2874,13 +2892,13 @@
         <v>48381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2948,13 +2966,13 @@
         <v>160873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>247</v>
@@ -2963,13 +2981,13 @@
         <v>272431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="M10" s="7">
         <v>393</v>
@@ -2978,13 +2996,13 @@
         <v>433304</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2999,13 +3017,13 @@
         <v>33122</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3014,13 +3032,13 @@
         <v>52616</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3029,13 +3047,13 @@
         <v>85738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3103,13 +3121,13 @@
         <v>83758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -3118,13 +3136,13 @@
         <v>185632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -3133,13 +3151,13 @@
         <v>269390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3154,13 +3172,13 @@
         <v>40659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -3169,13 +3187,13 @@
         <v>58992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3184,13 +3202,13 @@
         <v>99651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3258,13 +3276,13 @@
         <v>122099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H16" s="7">
         <v>272</v>
@@ -3273,13 +3291,13 @@
         <v>286889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="M16" s="7">
         <v>388</v>
@@ -3288,13 +3306,13 @@
         <v>408988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3309,13 +3327,13 @@
         <v>45851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3324,13 +3342,13 @@
         <v>98718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -3339,13 +3357,13 @@
         <v>144569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3413,13 +3431,13 @@
         <v>463252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" s="7">
         <v>869</v>
@@ -3428,13 +3446,13 @@
         <v>941789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="M19" s="7">
         <v>1297</v>
@@ -3443,13 +3461,13 @@
         <v>1405041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3464,13 +3482,13 @@
         <v>144255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -3479,13 +3497,13 @@
         <v>245179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -3494,13 +3512,13 @@
         <v>389434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3556,7 +3574,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3577,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D7A6DBD-00EF-4B4C-9CE9-2C02B4AB5F8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3613F05-F70F-4619-B7AD-E55F813ACB71}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3594,7 +3612,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3701,13 +3719,13 @@
         <v>17689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3716,13 +3734,13 @@
         <v>36839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3731,13 +3749,13 @@
         <v>54528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,13 +3770,13 @@
         <v>5941</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3767,13 +3785,13 @@
         <v>6651</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3782,13 +3800,13 @@
         <v>12592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3856,13 +3874,13 @@
         <v>70180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7">
         <v>132</v>
@@ -3871,13 +3889,13 @@
         <v>136157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -3886,13 +3904,13 @@
         <v>206336</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3907,13 +3925,13 @@
         <v>33412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3922,13 +3940,13 @@
         <v>35277</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -3937,13 +3955,13 @@
         <v>68689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>270</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4029,13 @@
         <v>143191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -4026,13 +4044,13 @@
         <v>240234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>276</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -4041,13 +4059,13 @@
         <v>383426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4062,13 +4080,13 @@
         <v>57929</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>282</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -4077,13 +4095,13 @@
         <v>53499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -4092,13 +4110,13 @@
         <v>111428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,13 +4184,13 @@
         <v>69711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -4181,13 +4199,13 @@
         <v>153758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -4196,13 +4214,13 @@
         <v>223470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4217,13 +4235,13 @@
         <v>41086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -4232,13 +4250,13 @@
         <v>61200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -4247,13 +4265,13 @@
         <v>102286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4339,13 @@
         <v>119862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -4336,13 +4354,13 @@
         <v>250411</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>185</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>340</v>
@@ -4351,13 +4369,13 @@
         <v>370273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4372,13 +4390,13 @@
         <v>73115</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4387,13 +4405,13 @@
         <v>107898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="M17" s="7">
         <v>171</v>
@@ -4402,13 +4420,13 @@
         <v>181013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4494,13 @@
         <v>420634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H19" s="7">
         <v>744</v>
@@ -4491,13 +4509,13 @@
         <v>817400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>1151</v>
@@ -4506,13 +4524,13 @@
         <v>1238033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4545,13 @@
         <v>211483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4542,13 +4560,13 @@
         <v>264524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="M20" s="7">
         <v>447</v>
@@ -4557,13 +4575,13 @@
         <v>476007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4619,7 +4637,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA9AE157-DA7F-48FA-B75C-966C278897E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B34FC94-8B0D-4B83-AD1F-6906A6E95119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B3517B96-7AAE-44D3-866E-CC4394AFCEF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25C068A1-B0DA-453B-9AB8-1EA8813C7146}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -76,7 +76,7 @@
     <t>81,31%</t>
   </si>
   <si>
-    <t>44,1%</t>
+    <t>45,09%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>74,57%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
+    <t>56,92%</t>
+  </si>
+  <si>
+    <t>89,3%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>59,67%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
+    <t>61,33%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,199 +109,199 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>55,9%</t>
+    <t>54,91%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>42,86%</t>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>40,33%</t>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>38,67%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>75,59%</t>
   </si>
   <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
+    <t>64,94%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>76,28%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>86,11%</t>
   </si>
   <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>79,12%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>79,81%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,88%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>67,0%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
+    <t>56,02%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
   </si>
   <si>
     <t>87,82%</t>
   </si>
   <si>
-    <t>83,02%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>76,29%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
   </si>
   <si>
     <t>33,0%</t>
   </si>
   <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>43,98%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -310,109 +310,109 @@
     <t>77,08%</t>
   </si>
   <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
+    <t>70,54%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>83,85%</t>
+    <t>74,56%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
   </si>
   <si>
     <t>78,73%</t>
   </si>
   <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>29,46%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>81,41%</t>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>86,26%</t>
   </si>
   <si>
     <t>81,55%</t>
   </si>
   <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
   </si>
   <si>
     <t>22,42%</t>
   </si>
   <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>13,74%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
   </si>
   <si>
     <t>18,45%</t>
   </si>
   <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -424,640 +424,640 @@
     <t>69,03%</t>
   </si>
   <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>83,81%</t>
+  </si>
+  <si>
     <t>78,91%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
   </si>
   <si>
     <t>21,09%</t>
   </si>
   <si>
-    <t>82,93%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
-  </si>
-  <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>83,48%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>75,86%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>73,0%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>24,14%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>79,35%</t>
+  </si>
+  <si>
+    <t>74,4%</t>
+  </si>
+  <si>
+    <t>69,68%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>72,54%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>77,05%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>78,3%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>27,46%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>22,95%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
+  </si>
+  <si>
+    <t>74,86%</t>
+  </si>
+  <si>
+    <t>55,0%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>84,71%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>25,14%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>79,42%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>69,55%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>41,35%</t>
+  </si>
+  <si>
+    <t>20,58%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>64,26%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>73,15%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>35,74%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>62,92%</t>
+  </si>
+  <si>
+    <t>53,48%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>71,53%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>37,08%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>46,52%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>81,23%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
+    <t>64,77%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>67,17%</t>
+  </si>
+  <si>
+    <t>62,69%</t>
+  </si>
+  <si>
+    <t>71,08%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>44,96%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>66,03%</t>
-  </si>
-  <si>
-    <t>80,03%</t>
-  </si>
-  <si>
-    <t>74,4%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>73,88%</t>
-  </si>
-  <si>
-    <t>69,72%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>33,97%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>72,77%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>81,59%</t>
-  </si>
-  <si>
-    <t>78,3%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>18,41%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2015 (Tasa respuesta: 24,33%)</t>
-  </si>
-  <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>51,57%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>48,43%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>29,4%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>80,74%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>76,95%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>86,02%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>73,66%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>62,92%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>77,66%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>63,34%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>28,37%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>28,47%</t>
-  </si>
-  <si>
-    <t>22,34%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>62,11%</t>
-  </si>
-  <si>
-    <t>54,67%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>67,17%</t>
-  </si>
-  <si>
-    <t>63,1%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
-  </si>
-  <si>
-    <t>45,33%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>35,23%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>28,96%</t>
-  </si>
-  <si>
-    <t>36,9%</t>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>37,31%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,6%</t>
-  </si>
-  <si>
-    <t>70,36%</t>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
+    <t>78,09%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>70,16%</t>
+    <t>69,86%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
+    <t>21,91%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>29,84%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1469,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF7C907E-D8A1-4F5E-973A-A297614CB8E4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701790D4-766A-4D07-8944-D6131A734EEE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2225,7 +2225,7 @@
         <v>209</v>
       </c>
       <c r="I16" s="7">
-        <v>219836</v>
+        <v>219835</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2327,7 +2327,7 @@
         <v>262</v>
       </c>
       <c r="I18" s="7">
-        <v>276008</v>
+        <v>276007</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2532,7 +2532,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C997334D-7222-4FD3-8996-DFE25DD75219}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A452F898-2CDC-4284-A41E-7EB607C67A34}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3595,7 +3595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3613F05-F70F-4619-B7AD-E55F813ACB71}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357290B8-92BC-41BE-9848-3B41B7293E0E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3910,7 +3910,7 @@
         <v>261</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>262</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3925,13 @@
         <v>33412</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3940,13 +3940,13 @@
         <v>35277</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -3955,13 +3955,13 @@
         <v>68689</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4029,13 @@
         <v>143191</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -4044,13 +4044,13 @@
         <v>240234</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -4059,13 +4059,13 @@
         <v>383426</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>278</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4080,13 @@
         <v>57929</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -4095,13 +4095,13 @@
         <v>53499</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>286</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -4110,13 +4110,13 @@
         <v>111428</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4184,13 @@
         <v>69711</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -4199,13 +4199,13 @@
         <v>153758</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -4214,13 +4214,13 @@
         <v>223470</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4235,13 @@
         <v>41086</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -4250,13 +4250,13 @@
         <v>61200</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -4265,13 +4265,13 @@
         <v>102286</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4339,13 @@
         <v>119862</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -4354,13 +4354,13 @@
         <v>250411</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>185</v>
+        <v>309</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M16" s="7">
         <v>340</v>
@@ -4369,13 +4369,13 @@
         <v>370273</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4390,13 @@
         <v>73115</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4405,7 +4405,7 @@
         <v>107898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>195</v>
+        <v>318</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>319</v>
@@ -4512,10 +4512,10 @@
         <v>327</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M19" s="7">
         <v>1151</v>
@@ -4524,13 +4524,13 @@
         <v>1238033</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,7 +4566,7 @@
         <v>336</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>337</v>
+        <v>156</v>
       </c>
       <c r="M20" s="7">
         <v>447</v>
@@ -4575,10 +4575,10 @@
         <v>476007</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>339</v>

--- a/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B34FC94-8B0D-4B83-AD1F-6906A6E95119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8158D1F9-9451-4435-81B7-2274ED48233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{25C068A1-B0DA-453B-9AB8-1EA8813C7146}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEBC8D6C-06F3-4D04-AD61-5CE2239D3425}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="334">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -70,13 +70,13 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>81,31%</t>
   </si>
   <si>
-    <t>45,09%</t>
+    <t>44,1%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -85,19 +85,19 @@
     <t>74,57%</t>
   </si>
   <si>
-    <t>56,92%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
   </si>
   <si>
     <t>76,63%</t>
   </si>
   <si>
-    <t>61,33%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
   </si>
   <si>
     <t>No</t>
@@ -109,25 +109,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>54,91%</t>
+    <t>55,9%</t>
   </si>
   <si>
     <t>25,43%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
   </si>
   <si>
     <t>23,37%</t>
   </si>
   <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>38,67%</t>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
   </si>
   <si>
     <t>100%</t>
@@ -139,55 +139,55 @@
     <t>75,59%</t>
   </si>
   <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
+    <t>65,56%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
   </si>
   <si>
     <t>86,82%</t>
   </si>
   <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
+    <t>78,83%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
   </si>
   <si>
     <t>82,23%</t>
   </si>
   <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
   </si>
   <si>
     <t>24,41%</t>
   </si>
   <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>35,06%</t>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
   </si>
   <si>
     <t>13,18%</t>
   </si>
   <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>21,17%</t>
   </si>
   <si>
     <t>17,77%</t>
   </si>
   <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
   </si>
   <si>
     <t>10-50.000 hab</t>
@@ -196,55 +196,55 @@
     <t>86,11%</t>
   </si>
   <si>
-    <t>79,12%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>89,85%</t>
   </si>
   <si>
     <t>85,68%</t>
   </si>
   <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>13,89%</t>
   </si>
   <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
   </si>
   <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
   </si>
   <si>
     <t>14,32%</t>
   </si>
   <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>18,45%</t>
   </si>
   <si>
     <t>&gt;50.000hab</t>
@@ -253,7 +253,7 @@
     <t>67,0%</t>
   </si>
   <si>
-    <t>56,02%</t>
+    <t>54,55%</t>
   </si>
   <si>
     <t>76,73%</t>
@@ -262,19 +262,19 @@
     <t>87,82%</t>
   </si>
   <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
   </si>
   <si>
     <t>81,17%</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
   </si>
   <si>
     <t>33,0%</t>
@@ -283,25 +283,25 @@
     <t>23,27%</t>
   </si>
   <si>
-    <t>43,98%</t>
+    <t>45,45%</t>
   </si>
   <si>
     <t>12,18%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>18,83%</t>
   </si>
   <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -310,79 +310,73 @@
     <t>77,08%</t>
   </si>
   <si>
-    <t>70,54%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
   </si>
   <si>
     <t>79,65%</t>
   </si>
   <si>
-    <t>74,56%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
   </si>
   <si>
     <t>78,73%</t>
   </si>
   <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>82,45%</t>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>82,16%</t>
   </si>
   <si>
     <t>22,92%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>29,46%</t>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
   </si>
   <si>
     <t>20,35%</t>
   </si>
   <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
   </si>
   <si>
     <t>21,27%</t>
   </si>
   <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
   </si>
   <si>
     <t>77,58%</t>
   </si>
   <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
   </si>
   <si>
     <t>83,79%</t>
   </si>
   <si>
-    <t>80,87%</t>
-  </si>
-  <si>
-    <t>86,26%</t>
-  </si>
-  <si>
-    <t>81,55%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
   </si>
   <si>
     <t>83,62%</t>
@@ -391,28 +385,22 @@
     <t>22,42%</t>
   </si>
   <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
   </si>
   <si>
     <t>16,21%</t>
   </si>
   <si>
-    <t>13,74%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
+    <t>18,99%</t>
   </si>
   <si>
     <t>16,38%</t>
   </si>
   <si>
-    <t>20,75%</t>
+    <t>20,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -424,325 +412,325 @@
     <t>69,03%</t>
   </si>
   <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
+    <t>46,1%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
   </si>
   <si>
     <t>85,89%</t>
   </si>
   <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
   </si>
   <si>
     <t>81,1%</t>
   </si>
   <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
   </si>
   <si>
     <t>30,97%</t>
   </si>
   <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>53,9%</t>
   </si>
   <si>
     <t>14,11%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
   </si>
   <si>
     <t>18,9%</t>
   </si>
   <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
   </si>
   <si>
     <t>81,37%</t>
   </si>
   <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>88,38%</t>
   </si>
   <si>
     <t>84,75%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
   </si>
   <si>
     <t>83,55%</t>
   </si>
   <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>78,68%</t>
+  </si>
+  <si>
+    <t>87,83%</t>
   </si>
   <si>
     <t>18,63%</t>
   </si>
   <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>15,25%</t>
   </si>
   <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
   </si>
   <si>
     <t>16,45%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
   </si>
   <si>
     <t>82,93%</t>
   </si>
   <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>87,84%</t>
   </si>
   <si>
     <t>83,81%</t>
   </si>
   <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
+    <t>79,5%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
   </si>
   <si>
     <t>83,48%</t>
   </si>
   <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>86,84%</t>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
   </si>
   <si>
     <t>17,07%</t>
   </si>
   <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
   </si>
   <si>
     <t>16,19%</t>
   </si>
   <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
   </si>
   <si>
     <t>16,52%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>75,86%</t>
+    <t>57,63%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
   </si>
   <si>
     <t>75,88%</t>
   </si>
   <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
   </si>
   <si>
     <t>73,0%</t>
   </si>
   <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>67,41%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>24,14%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>42,37%</t>
   </si>
   <si>
     <t>24,12%</t>
   </si>
   <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>30,21%</t>
   </si>
   <si>
     <t>27,0%</t>
   </si>
   <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>32,59%</t>
   </si>
   <si>
     <t>72,7%</t>
   </si>
   <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>79,35%</t>
+    <t>65,83%</t>
+  </si>
+  <si>
+    <t>79,7%</t>
   </si>
   <si>
     <t>74,4%</t>
   </si>
   <si>
-    <t>69,68%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
   </si>
   <si>
     <t>73,88%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>70,09%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>27,3%</t>
   </si>
   <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
   </si>
   <si>
     <t>25,6%</t>
   </si>
   <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
   </si>
   <si>
     <t>26,12%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
   </si>
   <si>
     <t>76,25%</t>
   </si>
   <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
   </si>
   <si>
     <t>79,34%</t>
   </si>
   <si>
-    <t>77,05%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
   </si>
   <si>
     <t>78,3%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
+    <t>76,03%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
   </si>
   <si>
     <t>23,75%</t>
   </si>
   <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>27,46%</t>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
   </si>
   <si>
     <t>20,66%</t>
   </si>
   <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>22,95%</t>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
   </si>
   <si>
     <t>21,7%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
   </si>
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
@@ -751,313 +739,307 @@
     <t>74,86%</t>
   </si>
   <si>
-    <t>55,0%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
+    <t>54,66%</t>
+  </si>
+  <si>
+    <t>90,86%</t>
   </si>
   <si>
     <t>84,71%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
   </si>
   <si>
     <t>81,24%</t>
   </si>
   <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>71,33%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
   </si>
   <si>
     <t>25,14%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>45,34%</t>
   </si>
   <si>
     <t>15,29%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
   </si>
   <si>
     <t>18,76%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>28,67%</t>
   </si>
   <si>
     <t>67,75%</t>
   </si>
   <si>
-    <t>58,65%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>57,23%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
   </si>
   <si>
     <t>79,42%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
   </si>
   <si>
     <t>75,02%</t>
   </si>
   <si>
-    <t>69,55%</t>
+    <t>68,73%</t>
   </si>
   <si>
     <t>32,25%</t>
   </si>
   <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>41,35%</t>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
   </si>
   <si>
     <t>20,58%</t>
   </si>
   <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
   </si>
   <si>
     <t>24,98%</t>
   </si>
   <si>
-    <t>30,45%</t>
+    <t>31,27%</t>
   </si>
   <si>
     <t>71,2%</t>
   </si>
   <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>63,14%</t>
   </si>
   <si>
     <t>81,79%</t>
   </si>
   <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
+    <t>86,24%</t>
   </si>
   <si>
     <t>77,48%</t>
   </si>
   <si>
-    <t>73,15%</t>
-  </si>
-  <si>
-    <t>80,9%</t>
+    <t>73,65%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
   </si>
   <si>
     <t>28,8%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>35,74%</t>
+    <t>36,86%</t>
   </si>
   <si>
     <t>18,21%</t>
   </si>
   <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>13,76%</t>
   </si>
   <si>
     <t>22,52%</t>
   </si>
   <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
   </si>
   <si>
     <t>62,92%</t>
   </si>
   <si>
-    <t>53,48%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
   </si>
   <si>
     <t>71,53%</t>
   </si>
   <si>
-    <t>65,1%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>68,6%</t>
   </si>
   <si>
-    <t>62,81%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
   </si>
   <si>
     <t>37,08%</t>
   </si>
   <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>46,52%</t>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
   </si>
   <si>
     <t>28,47%</t>
   </si>
   <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
   </si>
   <si>
     <t>31,4%</t>
   </si>
   <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
   </si>
   <si>
     <t>62,11%</t>
   </si>
   <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
   </si>
   <si>
     <t>69,89%</t>
   </si>
   <si>
-    <t>64,77%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
   </si>
   <si>
     <t>67,17%</t>
   </si>
   <si>
-    <t>62,69%</t>
-  </si>
-  <si>
-    <t>71,08%</t>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>70,93%</t>
   </si>
   <si>
     <t>37,89%</t>
   </si>
   <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>44,96%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
   </si>
   <si>
     <t>30,11%</t>
   </si>
   <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>35,23%</t>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>34,83%</t>
   </si>
   <si>
     <t>32,83%</t>
   </si>
   <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>37,31%</t>
+    <t>29,07%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
   </si>
   <si>
     <t>66,54%</t>
   </si>
   <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
+    <t>62,79%</t>
+  </si>
+  <si>
+    <t>70,37%</t>
   </si>
   <si>
     <t>75,55%</t>
   </si>
   <si>
-    <t>78,09%</t>
+    <t>72,86%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
   </si>
   <si>
     <t>33,46%</t>
   </si>
   <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
+    <t>29,63%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
   </si>
   <si>
     <t>24,45%</t>
   </si>
   <si>
-    <t>21,91%</t>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{701790D4-766A-4D07-8944-D6131A734EEE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E75712E-7860-49CF-900A-F6E676961CFE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2389,22 +2371,22 @@
         <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="M19" s="7">
         <v>1008</v>
       </c>
       <c r="N19" s="7">
-        <v>1020880</v>
+        <v>1020879</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,13 +2401,13 @@
         <v>101108</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>127</v>
@@ -2434,13 +2416,13 @@
         <v>129804</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>228</v>
@@ -2449,13 +2431,13 @@
         <v>230912</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>122</v>
+        <v>68</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2497,7 +2479,7 @@
         <v>1236</v>
       </c>
       <c r="N21" s="7">
-        <v>1251792</v>
+        <v>1251791</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2511,7 +2493,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2532,7 +2514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A452F898-2CDC-4284-A41E-7EB607C67A34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0062CAC1-D27A-4A4D-9607-797945AE5C58}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2549,7 +2531,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2656,13 +2638,13 @@
         <v>11507</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H4" s="7">
         <v>33</v>
@@ -2671,13 +2653,13 @@
         <v>36114</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>46</v>
@@ -2686,13 +2668,13 @@
         <v>47620</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,13 +2689,13 @@
         <v>5163</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -2722,13 +2704,13 @@
         <v>5931</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -2737,13 +2719,13 @@
         <v>11095</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,13 +2793,13 @@
         <v>85016</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>150</v>
@@ -2826,13 +2808,13 @@
         <v>160724</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>229</v>
@@ -2841,13 +2823,13 @@
         <v>245739</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,13 +2844,13 @@
         <v>19459</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -2877,13 +2859,13 @@
         <v>28922</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>45</v>
@@ -2892,13 +2874,13 @@
         <v>48381</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2948,13 @@
         <v>160873</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>247</v>
@@ -2981,13 +2963,13 @@
         <v>272431</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>393</v>
@@ -2996,13 +2978,13 @@
         <v>433304</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,13 +2999,13 @@
         <v>33122</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>47</v>
@@ -3032,13 +3014,13 @@
         <v>52616</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>78</v>
@@ -3047,13 +3029,13 @@
         <v>85738</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3103,13 @@
         <v>83758</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>167</v>
@@ -3136,13 +3118,13 @@
         <v>185632</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>241</v>
@@ -3151,13 +3133,13 @@
         <v>269390</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,13 +3154,13 @@
         <v>40659</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H14" s="7">
         <v>54</v>
@@ -3187,13 +3169,13 @@
         <v>58992</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
         <v>92</v>
@@ -3202,13 +3184,13 @@
         <v>99651</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3258,13 @@
         <v>122099</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H16" s="7">
         <v>272</v>
@@ -3291,13 +3273,13 @@
         <v>286889</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="M16" s="7">
         <v>388</v>
@@ -3306,13 +3288,13 @@
         <v>408988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,13 +3309,13 @@
         <v>45851</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="H17" s="7">
         <v>96</v>
@@ -3342,13 +3324,13 @@
         <v>98718</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="M17" s="7">
         <v>140</v>
@@ -3357,13 +3339,13 @@
         <v>144569</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3413,13 @@
         <v>463252</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H19" s="7">
         <v>869</v>
@@ -3446,13 +3428,13 @@
         <v>941789</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="M19" s="7">
         <v>1297</v>
@@ -3461,13 +3443,13 @@
         <v>1405041</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3464,13 @@
         <v>144255</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H20" s="7">
         <v>228</v>
@@ -3497,13 +3479,13 @@
         <v>245179</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>365</v>
@@ -3512,13 +3494,13 @@
         <v>389434</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3574,7 +3556,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3595,7 +3577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{357290B8-92BC-41BE-9848-3B41B7293E0E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C78B04-C3C1-4539-B0F5-4B04388085AB}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3612,7 +3594,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3719,13 +3701,13 @@
         <v>17689</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>35</v>
@@ -3734,13 +3716,13 @@
         <v>36839</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>51</v>
@@ -3749,13 +3731,13 @@
         <v>54528</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,13 +3752,13 @@
         <v>5941</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -3785,13 +3767,13 @@
         <v>6651</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -3800,13 +3782,13 @@
         <v>12592</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3856,13 @@
         <v>70180</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>132</v>
@@ -3889,13 +3871,13 @@
         <v>136157</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>202</v>
@@ -3904,13 +3886,13 @@
         <v>206336</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3907,13 @@
         <v>33412</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>34</v>
@@ -3940,13 +3922,13 @@
         <v>35277</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M8" s="7">
         <v>65</v>
@@ -3955,13 +3937,13 @@
         <v>68689</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4011,13 @@
         <v>143191</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>272</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>216</v>
@@ -4044,13 +4026,13 @@
         <v>240234</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>274</v>
+        <v>217</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="M10" s="7">
         <v>351</v>
@@ -4059,13 +4041,13 @@
         <v>383426</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,13 +4062,13 @@
         <v>57929</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>280</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="H11" s="7">
         <v>51</v>
@@ -4095,13 +4077,13 @@
         <v>53499</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>284</v>
+        <v>227</v>
       </c>
       <c r="M11" s="7">
         <v>102</v>
@@ -4110,13 +4092,13 @@
         <v>111428</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4166,13 @@
         <v>69711</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="H13" s="7">
         <v>139</v>
@@ -4199,13 +4181,13 @@
         <v>153758</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
@@ -4214,13 +4196,13 @@
         <v>223470</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,13 +4217,13 @@
         <v>41086</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="H14" s="7">
         <v>58</v>
@@ -4250,13 +4232,13 @@
         <v>61200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="M14" s="7">
         <v>96</v>
@@ -4265,13 +4247,13 @@
         <v>102286</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4321,13 @@
         <v>119862</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H16" s="7">
         <v>222</v>
@@ -4354,13 +4336,13 @@
         <v>250411</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="M16" s="7">
         <v>340</v>
@@ -4369,13 +4351,13 @@
         <v>370273</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,13 +4372,13 @@
         <v>73115</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="H17" s="7">
         <v>100</v>
@@ -4405,13 +4387,13 @@
         <v>107898</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>171</v>
@@ -4420,13 +4402,13 @@
         <v>181013</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4476,13 @@
         <v>420634</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>744</v>
@@ -4509,13 +4491,13 @@
         <v>817400</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>146</v>
+        <v>320</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="M19" s="7">
         <v>1151</v>
@@ -4524,13 +4506,13 @@
         <v>1238033</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,13 +4527,13 @@
         <v>211483</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H20" s="7">
         <v>250</v>
@@ -4560,13 +4542,13 @@
         <v>264524</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>156</v>
+        <v>330</v>
       </c>
       <c r="M20" s="7">
         <v>447</v>
@@ -4575,13 +4557,13 @@
         <v>476007</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4637,7 +4619,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8158D1F9-9451-4435-81B7-2274ED48233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C41E6D8-78D9-4974-A2FE-665719A9D669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BEBC8D6C-06F3-4D04-AD61-5CE2239D3425}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{77D8B095-1BBA-4B34-B639-5F728DE98778}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="279">
   <si>
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007 (Tasa respuesta: 18,98%)</t>
   </si>
@@ -67,129 +67,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>74,57%</t>
-  </si>
-  <si>
-    <t>56,62%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>25,43%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>75,59%</t>
-  </si>
-  <si>
-    <t>65,56%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>86,82%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>82,23%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>13,18%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -247,7 +190,7 @@
     <t>18,45%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>67,0%</t>
@@ -367,9 +310,6 @@
     <t>73,01%</t>
   </si>
   <si>
-    <t>81,26%</t>
-  </si>
-  <si>
     <t>83,79%</t>
   </si>
   <si>
@@ -385,9 +325,6 @@
     <t>22,42%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
     <t>26,99%</t>
   </si>
   <si>
@@ -409,112 +346,58 @@
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012 (Tasa respuesta: 25,54%)</t>
   </si>
   <si>
-    <t>69,03%</t>
-  </si>
-  <si>
-    <t>46,1%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>53,9%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>88,38%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>78,11%</t>
-  </si>
-  <si>
-    <t>89,48%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>71,13%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>89,42%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>78,48%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>28,87%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
   </si>
   <si>
     <t>82,93%</t>
@@ -736,106 +619,58 @@
     <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016 (Tasa respuesta: 24,33%)</t>
   </si>
   <si>
-    <t>74,86%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>84,71%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>71,33%</t>
-  </si>
-  <si>
-    <t>89,42%</t>
-  </si>
-  <si>
-    <t>25,14%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>45,34%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>10,58%</t>
-  </si>
-  <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>57,23%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>79,42%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>75,02%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>20,58%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>60,09%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>85,52%</t>
+  </si>
+  <si>
+    <t>76,24%</t>
+  </si>
+  <si>
+    <t>71,64%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>23,76%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>28,36%</t>
   </si>
   <si>
     <t>71,2%</t>
@@ -1451,8 +1286,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E75712E-7860-49CF-900A-F6E676961CFE}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E42F2693-D358-4F02-B6BE-D2D1030C1A5F}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1569,10 +1404,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="D4" s="7">
-        <v>9729</v>
+        <v>67381</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1584,10 +1419,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>24</v>
+        <v>119</v>
       </c>
       <c r="I4" s="7">
-        <v>20319</v>
+        <v>116223</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1599,10 +1434,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>33</v>
+        <v>186</v>
       </c>
       <c r="N4" s="7">
-        <v>30048</v>
+        <v>183604</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1620,10 +1455,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>2236</v>
+        <v>20856</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1635,10 +1470,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="I5" s="7">
-        <v>6929</v>
+        <v>21483</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1650,10 +1485,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>9165</v>
+        <v>42339</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1671,10 +1506,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="D6" s="7">
-        <v>11965</v>
+        <v>88237</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1686,10 +1521,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I6" s="7">
-        <v>27248</v>
+        <v>137706</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1701,10 +1536,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>42</v>
+        <v>228</v>
       </c>
       <c r="N6" s="7">
-        <v>39213</v>
+        <v>225943</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1724,10 +1559,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="D7" s="7">
-        <v>57651</v>
+        <v>107776</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1739,10 +1574,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>95</v>
+        <v>166</v>
       </c>
       <c r="I7" s="7">
-        <v>95904</v>
+        <v>179137</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1754,10 +1589,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>153</v>
+        <v>271</v>
       </c>
       <c r="N7" s="7">
-        <v>153555</v>
+        <v>286913</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1775,10 +1610,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="7">
-        <v>18621</v>
+        <v>17383</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1790,10 +1625,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7">
-        <v>14554</v>
+        <v>30556</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1805,10 +1640,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>33175</v>
+        <v>47939</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1826,10 +1661,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="D9" s="7">
-        <v>76272</v>
+        <v>125159</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1841,10 +1676,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>110</v>
+        <v>196</v>
       </c>
       <c r="I9" s="7">
-        <v>110458</v>
+        <v>209693</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1856,10 +1691,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>186</v>
+        <v>318</v>
       </c>
       <c r="N9" s="7">
-        <v>186730</v>
+        <v>334852</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1879,10 +1714,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>105</v>
+        <v>57</v>
       </c>
       <c r="D10" s="7">
-        <v>107776</v>
+        <v>55792</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1894,10 +1729,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="I10" s="7">
-        <v>179137</v>
+        <v>155758</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1909,10 +1744,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>271</v>
+        <v>213</v>
       </c>
       <c r="N10" s="7">
-        <v>286913</v>
+        <v>211550</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1930,10 +1765,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D11" s="7">
-        <v>17383</v>
+        <v>27482</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1945,10 +1780,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>30556</v>
+        <v>21593</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1963,7 +1798,7 @@
         <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>47939</v>
+        <v>49075</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1981,10 +1816,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>122</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>125159</v>
+        <v>83274</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1996,10 +1831,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>196</v>
+        <v>178</v>
       </c>
       <c r="I12" s="7">
-        <v>209693</v>
+        <v>177351</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2011,10 +1846,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>318</v>
+        <v>260</v>
       </c>
       <c r="N12" s="7">
-        <v>334852</v>
+        <v>260625</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2034,10 +1869,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D13" s="7">
-        <v>55792</v>
+        <v>118977</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2049,10 +1884,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>156</v>
+        <v>209</v>
       </c>
       <c r="I13" s="7">
-        <v>155758</v>
+        <v>219835</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2064,10 +1899,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>213</v>
+        <v>338</v>
       </c>
       <c r="N13" s="7">
-        <v>211550</v>
+        <v>338812</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2085,10 +1920,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>27482</v>
+        <v>35387</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2100,10 +1935,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>21593</v>
+        <v>56172</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2115,10 +1950,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="N14" s="7">
-        <v>49075</v>
+        <v>91559</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2136,10 +1971,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>82</v>
+        <v>168</v>
       </c>
       <c r="D15" s="7">
-        <v>83274</v>
+        <v>154364</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2151,10 +1986,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>178</v>
+        <v>262</v>
       </c>
       <c r="I15" s="7">
-        <v>177351</v>
+        <v>276007</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2166,10 +2001,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>260</v>
+        <v>430</v>
       </c>
       <c r="N15" s="7">
-        <v>260625</v>
+        <v>430371</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2183,55 +2018,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>129</v>
+        <v>358</v>
       </c>
       <c r="D16" s="7">
-        <v>118977</v>
+        <v>349926</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="7">
+        <v>650</v>
+      </c>
+      <c r="I16" s="7">
+        <v>670954</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>209</v>
-      </c>
-      <c r="I16" s="7">
-        <v>219835</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M16" s="7">
+        <v>1008</v>
+      </c>
+      <c r="N16" s="7">
+        <v>1020879</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>338</v>
-      </c>
-      <c r="N16" s="7">
-        <v>338812</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,49 +2075,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="D17" s="7">
-        <v>35387</v>
+        <v>101108</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="7">
+        <v>127</v>
+      </c>
+      <c r="I17" s="7">
+        <v>129804</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="7">
+        <v>228</v>
+      </c>
+      <c r="N17" s="7">
+        <v>230912</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H17" s="7">
-        <v>53</v>
-      </c>
-      <c r="I17" s="7">
-        <v>56172</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>92</v>
-      </c>
-      <c r="N17" s="7">
-        <v>91559</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2291,10 +2126,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>168</v>
+        <v>459</v>
       </c>
       <c r="D18" s="7">
-        <v>154364</v>
+        <v>451034</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2306,10 +2141,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>262</v>
+        <v>777</v>
       </c>
       <c r="I18" s="7">
-        <v>276007</v>
+        <v>800758</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2321,10 +2156,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>430</v>
+        <v>1236</v>
       </c>
       <c r="N18" s="7">
-        <v>430371</v>
+        <v>1251791</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2337,171 +2172,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>358</v>
-      </c>
-      <c r="D19" s="7">
-        <v>349926</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>650</v>
-      </c>
-      <c r="I19" s="7">
-        <v>670954</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1008</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1020879</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>101</v>
-      </c>
-      <c r="D20" s="7">
-        <v>101108</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>127</v>
-      </c>
-      <c r="I20" s="7">
-        <v>129804</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>228</v>
-      </c>
-      <c r="N20" s="7">
-        <v>230912</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>459</v>
-      </c>
-      <c r="D21" s="7">
-        <v>451034</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>777</v>
-      </c>
-      <c r="I21" s="7">
-        <v>800758</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1236</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1251791</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2514,8 +2193,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0062CAC1-D27A-4A4D-9607-797945AE5C58}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3A5FD85-BA96-48E0-B66D-C7EF56518581}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2531,7 +2210,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2632,49 +2311,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>13</v>
+        <v>92</v>
       </c>
       <c r="D4" s="7">
-        <v>11507</v>
+        <v>96523</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>183</v>
       </c>
       <c r="I4" s="7">
-        <v>36114</v>
+        <v>196837</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M4" s="7">
-        <v>46</v>
+        <v>275</v>
       </c>
       <c r="N4" s="7">
-        <v>47620</v>
+        <v>293359</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2683,49 +2362,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>5163</v>
+        <v>24622</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="H5" s="7">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>5931</v>
+        <v>34853</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="N5" s="7">
-        <v>11095</v>
+        <v>59476</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2734,10 +2413,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>16670</v>
+        <v>121145</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2749,10 +2428,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>37</v>
+        <v>214</v>
       </c>
       <c r="I6" s="7">
-        <v>42045</v>
+        <v>231690</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2764,10 +2443,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>56</v>
+        <v>330</v>
       </c>
       <c r="N6" s="7">
-        <v>58715</v>
+        <v>352835</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2787,49 +2466,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="D7" s="7">
-        <v>85016</v>
+        <v>160873</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="H7" s="7">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="I7" s="7">
-        <v>160724</v>
+        <v>272431</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="M7" s="7">
-        <v>229</v>
+        <v>393</v>
       </c>
       <c r="N7" s="7">
-        <v>245739</v>
+        <v>433304</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2838,49 +2517,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D8" s="7">
-        <v>19459</v>
+        <v>33122</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="I8" s="7">
-        <v>28922</v>
+        <v>52616</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="M8" s="7">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="N8" s="7">
-        <v>48381</v>
+        <v>85738</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,10 +2568,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>97</v>
+        <v>177</v>
       </c>
       <c r="D9" s="7">
-        <v>104475</v>
+        <v>193995</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2904,10 +2583,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>177</v>
+        <v>294</v>
       </c>
       <c r="I9" s="7">
-        <v>189646</v>
+        <v>325047</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2919,10 +2598,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>274</v>
+        <v>471</v>
       </c>
       <c r="N9" s="7">
-        <v>294120</v>
+        <v>519042</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2942,49 +2621,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>74</v>
+      </c>
+      <c r="D10" s="7">
+        <v>83758</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="7">
+        <v>167</v>
+      </c>
+      <c r="I10" s="7">
+        <v>185632</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="7">
+        <v>241</v>
+      </c>
+      <c r="N10" s="7">
+        <v>269390</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="D10" s="7">
-        <v>160873</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H10" s="7">
-        <v>247</v>
-      </c>
-      <c r="I10" s="7">
-        <v>272431</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M10" s="7">
-        <v>393</v>
-      </c>
-      <c r="N10" s="7">
-        <v>433304</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,49 +2672,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>33122</v>
+        <v>40659</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="H11" s="7">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="I11" s="7">
-        <v>52616</v>
+        <v>58992</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>173</v>
+        <v>152</v>
       </c>
       <c r="M11" s="7">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="N11" s="7">
-        <v>85738</v>
+        <v>99651</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>174</v>
+        <v>153</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>175</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>176</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3044,10 +2723,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>177</v>
+        <v>112</v>
       </c>
       <c r="D12" s="7">
-        <v>193995</v>
+        <v>124417</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3059,10 +2738,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>294</v>
+        <v>221</v>
       </c>
       <c r="I12" s="7">
-        <v>325047</v>
+        <v>244624</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3074,10 +2753,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>471</v>
+        <v>333</v>
       </c>
       <c r="N12" s="7">
-        <v>519042</v>
+        <v>369041</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3097,49 +2776,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D13" s="7">
-        <v>83758</v>
+        <v>122099</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>178</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>179</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>167</v>
+        <v>272</v>
       </c>
       <c r="I13" s="7">
-        <v>185632</v>
+        <v>286889</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="N13" s="7">
-        <v>269390</v>
+        <v>408988</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>185</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3148,49 +2827,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>40659</v>
+        <v>45851</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>188</v>
+        <v>167</v>
       </c>
       <c r="H14" s="7">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="I14" s="7">
-        <v>58992</v>
+        <v>98718</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
-        <v>92</v>
+        <v>140</v>
       </c>
       <c r="N14" s="7">
-        <v>99651</v>
+        <v>144569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3199,10 +2878,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>112</v>
+        <v>160</v>
       </c>
       <c r="D15" s="7">
-        <v>124417</v>
+        <v>167950</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3214,10 +2893,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>221</v>
+        <v>368</v>
       </c>
       <c r="I15" s="7">
-        <v>244624</v>
+        <v>385607</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3229,10 +2908,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>333</v>
+        <v>528</v>
       </c>
       <c r="N15" s="7">
-        <v>369041</v>
+        <v>553557</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3246,55 +2925,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>116</v>
+        <v>428</v>
       </c>
       <c r="D16" s="7">
-        <v>122099</v>
+        <v>463252</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="H16" s="7">
-        <v>272</v>
+        <v>869</v>
       </c>
       <c r="I16" s="7">
-        <v>286889</v>
+        <v>941789</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M16" s="7">
-        <v>388</v>
+        <v>1297</v>
       </c>
       <c r="N16" s="7">
-        <v>408988</v>
+        <v>1405041</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>201</v>
+        <v>180</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3303,49 +2982,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="D17" s="7">
-        <v>45851</v>
+        <v>144255</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="H17" s="7">
-        <v>96</v>
+        <v>228</v>
       </c>
       <c r="I17" s="7">
-        <v>98718</v>
+        <v>245179</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>207</v>
+        <v>186</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="M17" s="7">
-        <v>140</v>
+        <v>365</v>
       </c>
       <c r="N17" s="7">
-        <v>144569</v>
+        <v>389434</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3354,10 +3033,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>160</v>
+        <v>565</v>
       </c>
       <c r="D18" s="7">
-        <v>167950</v>
+        <v>607507</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3369,10 +3048,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>368</v>
+        <v>1097</v>
       </c>
       <c r="I18" s="7">
-        <v>385607</v>
+        <v>1186968</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3384,10 +3063,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>528</v>
+        <v>1662</v>
       </c>
       <c r="N18" s="7">
-        <v>553557</v>
+        <v>1794475</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3400,171 +3079,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>428</v>
-      </c>
-      <c r="D19" s="7">
-        <v>463252</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H19" s="7">
-        <v>869</v>
-      </c>
-      <c r="I19" s="7">
-        <v>941789</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1297</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1405041</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>137</v>
-      </c>
-      <c r="D20" s="7">
-        <v>144255</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="H20" s="7">
-        <v>228</v>
-      </c>
-      <c r="I20" s="7">
-        <v>245179</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>365</v>
-      </c>
-      <c r="N20" s="7">
-        <v>389434</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>565</v>
-      </c>
-      <c r="D21" s="7">
-        <v>607507</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1097</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1186968</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1662</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1794475</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3577,8 +3100,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0C78B04-C3C1-4539-B0F5-4B04388085AB}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063CD770-B3C0-422C-8328-60CD148332F1}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3594,7 +3117,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3695,49 +3218,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>16</v>
+        <v>86</v>
       </c>
       <c r="D4" s="7">
-        <v>17689</v>
+        <v>87869</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>35</v>
+        <v>167</v>
       </c>
       <c r="I4" s="7">
-        <v>36839</v>
+        <v>172996</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="M4" s="7">
-        <v>51</v>
+        <v>253</v>
       </c>
       <c r="N4" s="7">
-        <v>54528</v>
+        <v>260864</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>200</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3746,49 +3269,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>5941</v>
+        <v>39353</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>203</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>204</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="I5" s="7">
-        <v>6651</v>
+        <v>41928</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>205</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>206</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>207</v>
       </c>
       <c r="M5" s="7">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="N5" s="7">
-        <v>12592</v>
+        <v>81281</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>208</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3797,10 +3320,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>22</v>
+        <v>123</v>
       </c>
       <c r="D6" s="7">
-        <v>23630</v>
+        <v>127222</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3812,10 +3335,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="I6" s="7">
-        <v>43490</v>
+        <v>214924</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3827,10 +3350,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>64</v>
+        <v>331</v>
       </c>
       <c r="N6" s="7">
-        <v>67120</v>
+        <v>342145</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3850,49 +3373,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>135</v>
+      </c>
+      <c r="D7" s="7">
+        <v>143191</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="D7" s="7">
-        <v>70180</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>252</v>
-      </c>
       <c r="H7" s="7">
-        <v>132</v>
+        <v>216</v>
       </c>
       <c r="I7" s="7">
-        <v>136157</v>
+        <v>240234</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>178</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>202</v>
+        <v>351</v>
       </c>
       <c r="N7" s="7">
-        <v>206336</v>
+        <v>383426</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3901,49 +3424,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D8" s="7">
-        <v>33412</v>
+        <v>57930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>259</v>
+        <v>79</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="I8" s="7">
-        <v>35277</v>
+        <v>53499</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>261</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>262</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>263</v>
+        <v>188</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>102</v>
       </c>
       <c r="N8" s="7">
-        <v>68689</v>
+        <v>111428</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3952,10 +3475,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>101</v>
+        <v>186</v>
       </c>
       <c r="D9" s="7">
-        <v>103592</v>
+        <v>201121</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3967,10 +3490,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>166</v>
+        <v>267</v>
       </c>
       <c r="I9" s="7">
-        <v>171434</v>
+        <v>293733</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3982,10 +3505,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="N9" s="7">
-        <v>275025</v>
+        <v>494854</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4005,49 +3528,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>135</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>143191</v>
+        <v>69711</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>216</v>
+        <v>139</v>
       </c>
       <c r="I10" s="7">
-        <v>240234</v>
+        <v>153758</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>269</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
-        <v>351</v>
+        <v>207</v>
       </c>
       <c r="N10" s="7">
-        <v>383426</v>
+        <v>223470</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>271</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>272</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4056,49 +3579,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>57929</v>
+        <v>41086</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>98</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I11" s="7">
-        <v>53499</v>
+        <v>61200</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="N11" s="7">
-        <v>111428</v>
+        <v>102286</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4107,10 +3630,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="D12" s="7">
-        <v>201120</v>
+        <v>110797</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4122,10 +3645,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="I12" s="7">
-        <v>293733</v>
+        <v>214958</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4137,10 +3660,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>453</v>
+        <v>303</v>
       </c>
       <c r="N12" s="7">
-        <v>494854</v>
+        <v>325756</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4160,49 +3683,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D13" s="7">
-        <v>69711</v>
+        <v>119862</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>281</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>282</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>139</v>
+        <v>222</v>
       </c>
       <c r="I13" s="7">
-        <v>153758</v>
+        <v>250411</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>283</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>284</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>285</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>207</v>
+        <v>340</v>
       </c>
       <c r="N13" s="7">
-        <v>223470</v>
+        <v>370273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>286</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>287</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>288</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4211,49 +3734,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="D14" s="7">
-        <v>41086</v>
+        <v>73115</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>289</v>
+        <v>252</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>290</v>
+        <v>253</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>291</v>
+        <v>254</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="I14" s="7">
-        <v>61200</v>
+        <v>107898</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>292</v>
+        <v>255</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>293</v>
+        <v>256</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>294</v>
+        <v>257</v>
       </c>
       <c r="M14" s="7">
-        <v>96</v>
+        <v>171</v>
       </c>
       <c r="N14" s="7">
-        <v>102286</v>
+        <v>181013</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>295</v>
+        <v>258</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>296</v>
+        <v>259</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4262,10 +3785,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="D15" s="7">
-        <v>110797</v>
+        <v>192977</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4277,10 +3800,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>197</v>
+        <v>322</v>
       </c>
       <c r="I15" s="7">
-        <v>214958</v>
+        <v>358309</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4292,10 +3815,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>303</v>
+        <v>511</v>
       </c>
       <c r="N15" s="7">
-        <v>325756</v>
+        <v>551286</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4309,55 +3832,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>118</v>
+        <v>407</v>
       </c>
       <c r="D16" s="7">
-        <v>119862</v>
+        <v>420634</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>298</v>
+        <v>261</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>299</v>
+        <v>262</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>300</v>
+        <v>263</v>
       </c>
       <c r="H16" s="7">
-        <v>222</v>
+        <v>744</v>
       </c>
       <c r="I16" s="7">
-        <v>250411</v>
+        <v>817400</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>301</v>
+        <v>264</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>302</v>
+        <v>265</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>303</v>
+        <v>266</v>
       </c>
       <c r="M16" s="7">
-        <v>340</v>
+        <v>1151</v>
       </c>
       <c r="N16" s="7">
-        <v>370273</v>
+        <v>1238033</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>304</v>
+        <v>267</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>305</v>
+        <v>268</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>306</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +3889,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>71</v>
+        <v>197</v>
       </c>
       <c r="D17" s="7">
-        <v>73115</v>
+        <v>211483</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>307</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>309</v>
+        <v>272</v>
       </c>
       <c r="H17" s="7">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="I17" s="7">
-        <v>107898</v>
+        <v>264524</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>310</v>
+        <v>273</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>311</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>171</v>
+        <v>447</v>
       </c>
       <c r="N17" s="7">
-        <v>181013</v>
+        <v>476007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>314</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>315</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,10 +3940,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>189</v>
+        <v>604</v>
       </c>
       <c r="D18" s="7">
-        <v>192977</v>
+        <v>632117</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4432,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>322</v>
+        <v>994</v>
       </c>
       <c r="I18" s="7">
-        <v>358309</v>
+        <v>1081924</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4447,10 +3970,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>511</v>
+        <v>1598</v>
       </c>
       <c r="N18" s="7">
-        <v>551286</v>
+        <v>1714040</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4463,171 +3986,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>407</v>
-      </c>
-      <c r="D19" s="7">
-        <v>420634</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H19" s="7">
-        <v>744</v>
-      </c>
-      <c r="I19" s="7">
-        <v>817400</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1151</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1238033</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>197</v>
-      </c>
-      <c r="D20" s="7">
-        <v>211483</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="H20" s="7">
-        <v>250</v>
-      </c>
-      <c r="I20" s="7">
-        <v>264524</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="M20" s="7">
-        <v>447</v>
-      </c>
-      <c r="N20" s="7">
-        <v>476007</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>604</v>
-      </c>
-      <c r="D21" s="7">
-        <v>632117</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>994</v>
-      </c>
-      <c r="I21" s="7">
-        <v>1081924</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1598</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1714040</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>121</v>
+      <c r="A19" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P16B02-Habitat-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2007</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2007</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2500,7 +2500,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2012</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2012</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4455,7 +4455,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de medicinas para el dolor/bajar la fiebre recetadas en 2016</t>
+          <t>Población cuyas medicinas para el dolor/bajar la fiebre fueron recetadas en 2016</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
